--- a/Luban/Configs/Datas/t_effect.xlsx
+++ b/Luban/Configs/Datas/t_effect.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\DNFReprint\Luban\Configs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36FE2DCC-441F-4E64-98AF-C71B5AF4FB3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{969D7F11-3DA2-4F2B-A09B-92B91DB4E243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
   <si>
     <t>##var</t>
   </si>
@@ -139,6 +139,18 @@
   </si>
   <si>
     <t>weaponEx</t>
+  </si>
+  <si>
+    <t>波动斩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>skillEffect/BoDongZhan/boDongZhan0000a</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>skillEffect/BoDongZhan/boDongZhan0000b</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -476,7 +488,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -646,27 +658,63 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+      <c r="B6" s="1">
+        <v>10002</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.63</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
+      <c r="B7" s="1">
+        <v>10003</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>

--- a/Luban/Configs/Datas/t_effect.xlsx
+++ b/Luban/Configs/Datas/t_effect.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\DNFReprint\Luban\Configs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{969D7F11-3DA2-4F2B-A09B-92B91DB4E243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DABCFDF5-DFC7-416F-B384-2EBA93223523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -488,7 +488,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -671,10 +671,10 @@
         <v>1</v>
       </c>
       <c r="F6" s="1">
-        <v>0.63</v>
+        <v>0.54</v>
       </c>
       <c r="G6" s="1">
-        <v>0.13</v>
+        <v>0.09</v>
       </c>
       <c r="H6" s="1">
         <v>0</v>

--- a/Luban/Configs/Datas/t_effect.xlsx
+++ b/Luban/Configs/Datas/t_effect.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\DNFReprint\Luban\Configs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DABCFDF5-DFC7-416F-B384-2EBA93223523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63CAA093-C55B-40CF-9354-FEA25E6EA57D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -123,14 +123,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>skillEffect/GuiZhan/guiZhan0000a</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>skillEffect/GuiZhan/guiZhan0000b</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>鬼斩</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -145,11 +137,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>skillEffect/BoDongZhan/boDongZhan0000a</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>skillEffect/BoDongZhan/boDongZhan0000b</t>
+    <t>guiZhan0000a</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>guiZhan0000b</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>boDongZhan0000a</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>boDongZhan0000b</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -488,7 +488,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -602,10 +602,10 @@
         <v>10000</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -620,7 +620,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J4" s="1">
         <v>0</v>
@@ -632,10 +632,10 @@
         <v>10001</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -650,7 +650,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J5" s="1">
         <v>0</v>
@@ -662,7 +662,7 @@
         <v>10002</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>31</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J6" s="1">
         <v>6</v>
@@ -692,7 +692,7 @@
         <v>10003</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>32</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J7" s="1">
         <v>6</v>
